--- a/python1/class_23_api_framework_v1/data/cases.xlsx
+++ b/python1/class_23_api_framework_v1/data/cases.xlsx
@@ -44,7 +44,22 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -58,7 +73,39 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -72,21 +119,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -96,38 +128,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -150,8 +151,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +166,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -180,13 +180,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,7 +330,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,151 +354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,17 +374,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -404,11 +400,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -416,8 +418,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,17 +448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -471,6 +462,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -479,145 +479,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>{"mobile_phone":"18111111111","pwd":"123456"}</t>
+          <t>{"mobilephone":"18111111111","pwd":"123456"}</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>{"mobile_phone":"18111111112","pwd":"123457"}</t>
+          <t>{"mobilephone":"18111111111","pwd":"123456"}</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>{"mobile_phone":"181111111113","pwd":"123454"}</t>
+          <t>{"mobilephone":"18111111111","pwd":"123456"}</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>{"mobile_phone":"#exist_phone#","pwd":"123456"}</t>
+          <t>{"mobilephone":"#exist_phone#","pwd":"123456"}</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>{"mobile_phone":"#new_phone#","pwd":"123456"}</t>
+          <t>{"mobilephone":"#new_phone#","pwd":"123456"}</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
